--- a/DN_medieanalys_resultat_sammanfattning.xlsx
+++ b/DN_medieanalys_resultat_sammanfattning.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellen/Desktop/Granskning/Resultat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4187E-1F3E-D448-A23C-A247D1CBE9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792E6520-3A9B-0243-AA2C-108A54FF4C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="13560" xr2:uid="{97735B72-473E-A24E-8011-062507561BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2B18C6-E110-DA49-9BEC-09CE3829DD1F}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,10 +540,10 @@
         <v>171</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
